--- a/data/trans_camb/DCD-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Habitat-trans_camb.xlsx
@@ -618,7 +618,7 @@
         <v>-5.007793638458219</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.471485012156173</v>
+        <v>7.471485012156179</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-3.232537587665211</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.351726473505895</v>
+        <v>-4.492723447776393</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.965760796261497</v>
+        <v>2.920102256695174</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.089606276839964</v>
+        <v>-8.885162499583684</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.444617383603953</v>
+        <v>3.03165327464384</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.642475818021897</v>
+        <v>-5.46708329042974</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.374950636402384</v>
+        <v>4.59528487060587</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.469123449129138</v>
+        <v>1.386094994918716</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.607016574747165</v>
+        <v>9.396544143720289</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.9627406052035196</v>
+        <v>-1.156004814416224</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.90646663373155</v>
+        <v>11.03095658928544</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.6493124909886837</v>
+        <v>-0.8029925789332565</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.618958741185626</v>
+        <v>9.589631285453374</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>-0.2653516611197652</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.3958970960347831</v>
+        <v>0.3958970960347833</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2371987490529164</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4309196549260199</v>
+        <v>-0.4585149091552992</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2758288395193514</v>
+        <v>0.2838907551249836</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4259196467915731</v>
+        <v>-0.42202638875765</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1623513521617589</v>
+        <v>0.1332146905138825</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3763426165496119</v>
+        <v>-0.3697888938758349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2817829635796322</v>
+        <v>0.2987376590664089</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2279882163127541</v>
+        <v>0.2120849451922204</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.349745310057666</v>
+        <v>1.344515883541852</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.05835955386205806</v>
+        <v>-0.06623866270027819</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7300419235163679</v>
+        <v>0.6551260636448469</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.04555574947569038</v>
+        <v>-0.06140856845851333</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7782521763757528</v>
+        <v>0.7948319400749653</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>0.4053018887789583</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>4.834931880084249</v>
+        <v>4.834931880084246</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-3.501063018489148</v>
@@ -784,7 +784,7 @@
         <v>-1.553009436495273</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.357135808136239</v>
+        <v>7.357135808136237</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.031476594466449</v>
+        <v>-1.76056207003841</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.403479956276645</v>
+        <v>2.48338473530213</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.829875945161358</v>
+        <v>-6.529482042491249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.609002861433972</v>
+        <v>5.931153879773114</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.395363174088254</v>
+        <v>-3.581704178516976</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.201801380380553</v>
+        <v>5.275069183052964</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.726390136846988</v>
+        <v>2.892051205575297</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.027057018109484</v>
+        <v>7.518884247793787</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.3595389555318204</v>
+        <v>-0.2968087139488265</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.09192127671247</v>
+        <v>12.90393299659356</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3066863216848758</v>
+        <v>0.4915058698039592</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.523864311430618</v>
+        <v>9.484915833296306</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +850,7 @@
         <v>0.06195759629078582</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.7391052591000458</v>
+        <v>0.7391052591000454</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.2171481370976443</v>
@@ -862,7 +862,7 @@
         <v>-0.1366420482162424</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6473200240801342</v>
+        <v>0.647320024080134</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2657582359593845</v>
+        <v>-0.2260571466515225</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3138578639240666</v>
+        <v>0.3100612549447433</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3806944704855926</v>
+        <v>-0.3805106670647839</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3565540051637495</v>
+        <v>0.3269378206697882</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2783168211502174</v>
+        <v>-0.2904228877103924</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.420172349777179</v>
+        <v>0.415788794443945</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4997533207702843</v>
+        <v>0.5496962304675912</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.308684004904105</v>
+        <v>1.41792595757777</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.02152939132543281</v>
+        <v>-0.02188924203055127</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9038039272362762</v>
+        <v>0.8942941926602381</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03245914602937783</v>
+        <v>0.04693836494744245</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9394844125915965</v>
+        <v>0.9124666979030635</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.389191840834931</v>
+        <v>-2.171409287579556</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.373227900014115</v>
+        <v>3.782948347343141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.253957418408445</v>
+        <v>-7.652344551874108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.968487194044533</v>
+        <v>9.307354960910263</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.011061415079814</v>
+        <v>-3.975073401495236</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.194306394219731</v>
+        <v>7.131717639559357</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.483036924888442</v>
+        <v>2.809367285704078</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.353760589897743</v>
+        <v>9.489651548620845</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.420601121481919</v>
+        <v>-0.5070980077290745</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.19088821872043</v>
+        <v>16.79418331434983</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4132728759132945</v>
+        <v>0.4055084758416039</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.45166638962322</v>
+        <v>12.18937104708056</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3595214746817283</v>
+        <v>-0.3335603484094551</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4549189076873479</v>
+        <v>0.5403734299484061</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4414775372289265</v>
+        <v>-0.4582093090785354</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5363489981515498</v>
+        <v>0.5386527723919994</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3520701590630502</v>
+        <v>-0.3492779832530399</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6113771306435065</v>
+        <v>0.6364367154749045</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5697809170477395</v>
+        <v>0.6625475949184578</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.24071514287487</v>
+        <v>2.381681539132779</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.03375308560085836</v>
+        <v>-0.02000115202774917</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.397437883129384</v>
+        <v>1.327441110695604</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05798686820017292</v>
+        <v>0.04890250071561037</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.413612810857184</v>
+        <v>1.385150563294137</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>-1.323175955142319</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10.97704012914316</v>
+        <v>10.97704012914315</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.3593437874923777</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.602317116568388</v>
+        <v>-1.697435648251736</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.899263518980738</v>
+        <v>4.86979143449523</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.524510655066766</v>
+        <v>-4.451371350209341</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.486556753191194</v>
+        <v>7.627470415325295</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.564251660375505</v>
+        <v>-2.32626361342119</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.316739945408594</v>
+        <v>7.271178261155965</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.035012952920249</v>
+        <v>3.081713602808726</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.22422738602847</v>
+        <v>10.50674889250468</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.960374618218257</v>
+        <v>2.017426768872815</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.11534519403374</v>
+        <v>14.2455139317938</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.766381818431061</v>
+        <v>1.755761727508308</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.55023756829543</v>
+        <v>11.67551923383185</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>-0.08274377912166178</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.6864406659791102</v>
+        <v>0.6864406659791098</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.03136366619377896</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2178822721714373</v>
+        <v>-0.2181918523022928</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.6075572119381399</v>
+        <v>0.646158461561672</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2642553441132856</v>
+        <v>-0.2523822243489474</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4205921575441736</v>
+        <v>0.4143488802575171</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2088495319427522</v>
+        <v>-0.1840275420554573</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5665774222284149</v>
+        <v>0.5748306213742501</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.587282299189175</v>
+        <v>0.5857272944414724</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.935149621629113</v>
+        <v>2.016165772404428</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1361883078701922</v>
+        <v>0.1437073150550426</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9998985474907363</v>
+        <v>0.9857782137654421</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1702214319139756</v>
+        <v>0.1700113148724763</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.10819909038106</v>
+        <v>1.120412540762271</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>-1.623120289692205</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.409848433418151</v>
+        <v>8.409848433418146</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.232201393650873</v>
+        <v>-1.18617088400151</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.70155729428677</v>
+        <v>4.764184646878266</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.854625207941055</v>
+        <v>-5.044958027592652</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.702971852983367</v>
+        <v>8.490758422924493</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.81059984553186</v>
+        <v>-2.781091640446527</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.195251190727118</v>
+        <v>7.195646792128077</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.256853545662671</v>
+        <v>1.194603304954979</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.60271650702819</v>
+        <v>7.670881342050791</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.524402826798539</v>
+        <v>-1.561671291824557</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.1416320364916</v>
+        <v>12.15771008080072</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.579703454361862</v>
+        <v>-0.6082907758164003</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.555365175340942</v>
+        <v>9.50873116662147</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1342,7 @@
         <v>-0.1402299008111973</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7265710490742898</v>
+        <v>0.7265710490742894</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.166716730380183</v>
+        <v>-0.1655871065381829</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.6473263080347066</v>
+        <v>0.6436424443219085</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2863839731960714</v>
+        <v>-0.2935860445093854</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.5022544179207752</v>
+        <v>0.4896161072926692</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2325936923730575</v>
+        <v>-0.2306265605117372</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5874729680365396</v>
+        <v>0.5920863100440521</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2031386361776529</v>
+        <v>0.1953994884562348</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.252537991592096</v>
+        <v>1.255737519351547</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1002419681805461</v>
+        <v>-0.1013068094057838</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7908635320236381</v>
+        <v>0.8027978625562939</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.05152456007786716</v>
+        <v>-0.05315948711015088</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.87248918726303</v>
+        <v>0.8665859716625268</v>
       </c>
     </row>
     <row r="34">
